--- a/config/excel/Hero.xlsx
+++ b/config/excel/Hero.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EDB9F1-BEE0-4C3F-A25E-A47E9E59F7D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FEBDF-EEAD-454C-9333-797D19B06F47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>模型资源</t>
-  </si>
-  <si>
-    <t>单位米</t>
   </si>
   <si>
     <t xml:space="preserve">0:先锋
@@ -79,21 +76,6 @@
 普攻攻击</t>
   </si>
   <si>
-    <t>Demo版本
-技能2
-战技技能</t>
-  </si>
-  <si>
-    <t>Demo版本
-技能3
-奥义技能</t>
-  </si>
-  <si>
-    <t>Demo版本
-技能4
-残响技能</t>
-  </si>
-  <si>
     <t>导出字段名</t>
   </si>
   <si>
@@ -103,18 +85,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>modelResource</t>
-  </si>
-  <si>
-    <t>big_icon</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>modelscope</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
@@ -145,27 +115,12 @@
     <t>skill2</t>
   </si>
   <si>
-    <t>skill3</t>
-  </si>
-  <si>
-    <t>skill4</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
     <t>英雄名字</t>
   </si>
   <si>
-    <t>半身像</t>
-  </si>
-  <si>
-    <t>头像</t>
-  </si>
-  <si>
-    <t>模型范围</t>
-  </si>
-  <si>
     <t>品质</t>
   </si>
   <si>
@@ -208,9 +163,6 @@
     <t>技能2</t>
   </si>
   <si>
-    <t>技能3</t>
-  </si>
-  <si>
     <t>技能4</t>
   </si>
   <si>
@@ -229,102 +181,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>[]int32</t>
-  </si>
-  <si>
-    <t>demo版本防战</t>
-  </si>
-  <si>
-    <t>waerjili</t>
-  </si>
-  <si>
-    <t>yase_01</t>
-  </si>
-  <si>
-    <t>yase</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>demo版本战士</t>
-  </si>
-  <si>
-    <t>puluomixiusi</t>
-  </si>
-  <si>
-    <t>puluomixiusi_01</t>
-  </si>
-  <si>
-    <t>demo版本法师</t>
-  </si>
-  <si>
-    <t>meilin</t>
-  </si>
-  <si>
-    <t>meilin_01</t>
-  </si>
-  <si>
-    <t>demo版本治疗</t>
-  </si>
-  <si>
-    <t>monster02a</t>
-  </si>
-  <si>
-    <t>dafuni_01</t>
-  </si>
-  <si>
-    <t>dafuni</t>
-  </si>
-  <si>
-    <t>怪物1</t>
-  </si>
-  <si>
-    <t>monster12b</t>
-  </si>
-  <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
-  </si>
-  <si>
-    <t>monster08b</t>
-  </si>
-  <si>
-    <t>monster08a</t>
-  </si>
-  <si>
-    <t>demo版本洛基</t>
-  </si>
-  <si>
-    <t>luoji</t>
-  </si>
-  <si>
-    <t>luoji_01</t>
-  </si>
-  <si>
-    <t>史莱姆国王</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小史莱姆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss02_b</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss02_s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shilaimuguowang</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2:SR
@@ -340,11 +197,81 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>第一关（红狼）</t>
+    <t>瓦尔基里</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>第一关（蓝狼）</t>
+    <t>普罗米修斯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能4
+奥义技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能2
+战技1技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo版本
+技能3
+战技2技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>101002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -466,13 +393,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,6 +406,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,35 +1572,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="1" customWidth="1"/>
-    <col min="13" max="16" width="9.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="9.25" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="6" style="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.25" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.1" customHeight="1">
+    <row r="1" spans="1:21" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1691,11 +1622,8 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="120.95" customHeight="1">
+    <row r="2" spans="1:21" ht="120.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
@@ -1703,210 +1631,183 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>15</v>
+      <c r="S2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="R3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="S3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>34</v>
+      <c r="T3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="R4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="S4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="T4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1917,877 +1818,311 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="1:24" ht="16.149999999999999" customHeight="1">
+    <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="12" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10" t="str">
+        <f t="shared" ref="N7:N9" si="0">J7&amp;","&amp;K7&amp;","&amp;L7&amp;","&amp;M7</f>
+        <v>0,0,0,0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
+      <c r="P7" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>30</v>
+      </c>
+      <c r="R7" s="8">
+        <v>101001</v>
+      </c>
+      <c r="S7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>59</v>
+      <c r="T7" s="13">
+        <v>101003</v>
+      </c>
+      <c r="U7" s="8">
+        <v>101004</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13">
+    <row r="8" spans="1:21" s="12" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="13">
-        <v>2</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="K8" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="13">
-        <v>3</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="L8" s="10">
         <v>1</v>
       </c>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="O7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13" t="str">
-        <f t="shared" ref="Q7:Q13" si="0">M7&amp;","&amp;N7&amp;","&amp;O7&amp;","&amp;P7</f>
-        <v>0,0,0,0</v>
-      </c>
-      <c r="R7" s="13">
+      <c r="M8" s="10">
         <v>1</v>
       </c>
-      <c r="S7" s="13">
-        <v>50</v>
-      </c>
-      <c r="T7" s="13">
-        <v>30</v>
-      </c>
-      <c r="U7" s="15">
-        <v>101001</v>
-      </c>
-      <c r="V7" s="15">
-        <v>101002</v>
-      </c>
-      <c r="W7" s="15">
-        <v>101003</v>
-      </c>
-      <c r="X7" s="15">
-        <v>101004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13">
-        <v>2</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="13">
-        <v>3</v>
-      </c>
-      <c r="J8" s="13">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13">
-        <v>1</v>
-      </c>
-      <c r="P8" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="13" t="str">
+      <c r="N8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>1,1,1,1</v>
       </c>
-      <c r="R8" s="13">
+      <c r="O8" s="10">
         <v>2</v>
       </c>
+      <c r="P8" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>50</v>
+      </c>
+      <c r="R8" s="8">
+        <v>102001</v>
+      </c>
       <c r="S8" s="13">
-        <v>80</v>
+        <v>102002</v>
       </c>
       <c r="T8" s="13">
-        <v>50</v>
-      </c>
-      <c r="U8" s="15">
-        <v>102001</v>
-      </c>
-      <c r="V8" s="15">
-        <v>102002</v>
-      </c>
-      <c r="W8" s="15">
         <v>102003</v>
       </c>
-      <c r="X8" s="15">
+      <c r="U8" s="8">
         <v>102004</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13">
+    <row r="9" spans="1:21" s="12" customFormat="1" ht="16.149999999999999" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10">
         <v>3</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="12">
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="G9" s="9">
         <v>3</v>
       </c>
-      <c r="K9" s="12">
+      <c r="H9" s="9">
         <v>3</v>
       </c>
-      <c r="L9" s="12">
+      <c r="I9" s="9">
         <v>4</v>
       </c>
-      <c r="M9" s="12">
+      <c r="J9" s="9">
         <v>2</v>
       </c>
-      <c r="N9" s="12">
+      <c r="K9" s="9">
         <v>2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="L9" s="9">
         <v>2</v>
       </c>
-      <c r="P9" s="12">
+      <c r="M9" s="9">
         <v>2</v>
       </c>
-      <c r="Q9" s="13" t="str">
+      <c r="N9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>2,2,2,2</v>
       </c>
-      <c r="R9" s="12">
+      <c r="O9" s="9">
         <v>3</v>
       </c>
+      <c r="P9" s="10">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>30</v>
+      </c>
+      <c r="R9" s="8">
+        <v>103001</v>
+      </c>
       <c r="S9" s="13">
-        <v>50</v>
+        <v>103002</v>
       </c>
       <c r="T9" s="13">
-        <v>30</v>
-      </c>
-      <c r="U9" s="15">
-        <v>103001</v>
-      </c>
-      <c r="V9" s="15">
-        <v>103002</v>
-      </c>
-      <c r="W9" s="15">
         <v>103003</v>
       </c>
-      <c r="X9" s="15">
+      <c r="U9" s="8">
         <v>103004</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13">
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="13.35" customHeight="1">
+      <c r="C10" s="12">
         <v>4</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>67</v>
+      <c r="D10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10004</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12">
+        <v>2</v>
       </c>
       <c r="I10" s="12">
+        <v>5</v>
+      </c>
+      <c r="J10" s="12">
         <v>3</v>
       </c>
-      <c r="J10" s="12">
-        <v>4</v>
-      </c>
       <c r="K10" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10" s="12">
         <v>3</v>
       </c>
-      <c r="N10" s="12">
-        <v>3</v>
-      </c>
-      <c r="O10" s="12">
-        <v>3</v>
-      </c>
-      <c r="P10" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="13" t="str">
-        <f t="shared" si="0"/>
+      <c r="N10" s="10" t="str">
+        <f t="shared" ref="N10" si="1">J10&amp;","&amp;K10&amp;","&amp;L10&amp;","&amp;M10</f>
         <v>3,3,3,3</v>
       </c>
-      <c r="R10" s="12">
+      <c r="O10" s="9">
         <v>4</v>
       </c>
+      <c r="P10" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>50</v>
+      </c>
+      <c r="R10" s="8">
+        <v>108001</v>
+      </c>
       <c r="S10" s="13">
-        <v>80</v>
+        <v>108002</v>
       </c>
       <c r="T10" s="13">
-        <v>50</v>
-      </c>
-      <c r="U10" s="15">
-        <v>104001</v>
-      </c>
-      <c r="V10" s="15">
-        <v>104002</v>
-      </c>
-      <c r="W10" s="15">
-        <v>104003</v>
-      </c>
-      <c r="X10" s="15">
-        <v>104004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="15" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13">
-        <v>5</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13">
-        <v>3</v>
-      </c>
-      <c r="L11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q11" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R11" s="13">
-        <v>5</v>
-      </c>
-      <c r="S11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T11" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="15">
-        <v>105001</v>
-      </c>
-      <c r="V11" s="15">
-        <v>105002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="15" customFormat="1" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
-        <v>6</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="12">
-        <v>3</v>
-      </c>
-      <c r="K12" s="12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q12" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R12" s="12">
-        <v>6</v>
-      </c>
-      <c r="S12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="15">
-        <v>106001</v>
-      </c>
-      <c r="V12" s="15">
-        <v>106002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="15" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13">
-        <v>7</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-      <c r="J13" s="12">
-        <v>4</v>
-      </c>
-      <c r="K13" s="12">
-        <v>3</v>
-      </c>
-      <c r="L13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q13" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R13" s="12">
-        <v>7</v>
-      </c>
-      <c r="S13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T13" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U13" s="15">
-        <v>107001</v>
-      </c>
-      <c r="V13" s="15">
-        <v>107002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C14" s="15">
-        <v>8</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="15">
-        <v>3</v>
-      </c>
-      <c r="J14" s="15">
-        <v>4</v>
-      </c>
-      <c r="K14" s="15">
-        <v>2</v>
-      </c>
-      <c r="L14" s="15">
-        <v>5</v>
-      </c>
-      <c r="M14" s="15">
-        <v>3</v>
-      </c>
-      <c r="N14" s="15">
-        <v>3</v>
-      </c>
-      <c r="O14" s="15">
-        <v>3</v>
-      </c>
-      <c r="P14" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="13" t="str">
-        <f t="shared" ref="Q14" si="1">M14&amp;","&amp;N14&amp;","&amp;O14&amp;","&amp;P14</f>
-        <v>3,3,3,3</v>
-      </c>
-      <c r="R14" s="12">
-        <v>4</v>
-      </c>
-      <c r="S14" s="13">
-        <v>80</v>
-      </c>
-      <c r="T14" s="13">
-        <v>50</v>
-      </c>
-      <c r="U14" s="15">
-        <v>108001</v>
-      </c>
-      <c r="V14" s="15">
-        <v>108002</v>
-      </c>
-      <c r="W14" s="15">
         <v>108003</v>
       </c>
-      <c r="X14" s="15">
+      <c r="U10" s="8">
         <v>108004</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C15" s="15">
-        <v>9</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="15">
-        <v>8</v>
-      </c>
-      <c r="K15" s="15">
-        <v>4</v>
-      </c>
-      <c r="L15" s="15">
-        <v>4</v>
-      </c>
-      <c r="M15" s="15">
-        <v>3</v>
-      </c>
-      <c r="N15" s="15">
-        <v>3</v>
-      </c>
-      <c r="O15" s="15">
-        <v>3</v>
-      </c>
-      <c r="P15" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="13" t="str">
-        <f t="shared" ref="Q15:Q18" si="2">M15&amp;","&amp;N15&amp;","&amp;O15&amp;","&amp;P15</f>
-        <v>3,3,3,3</v>
-      </c>
-      <c r="R15" s="12">
-        <v>4</v>
-      </c>
-      <c r="S15" s="13">
-        <v>80</v>
-      </c>
-      <c r="T15" s="13">
-        <v>50</v>
-      </c>
-      <c r="U15" s="15">
-        <v>109001</v>
-      </c>
-      <c r="V15" s="15">
-        <v>109002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="15" customFormat="1" ht="13.35" customHeight="1">
-      <c r="C16" s="15">
-        <v>10</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="15">
-        <v>3</v>
-      </c>
-      <c r="J16" s="15">
-        <v>8</v>
-      </c>
-      <c r="K16" s="15">
-        <v>4</v>
-      </c>
-      <c r="L16" s="15">
-        <v>4</v>
-      </c>
-      <c r="M16" s="15">
-        <v>3</v>
-      </c>
-      <c r="N16" s="15">
-        <v>3</v>
-      </c>
-      <c r="O16" s="15">
-        <v>3</v>
-      </c>
-      <c r="P16" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>3,3,3,3</v>
-      </c>
-      <c r="R16" s="12">
-        <v>4</v>
-      </c>
-      <c r="S16" s="13">
-        <v>80</v>
-      </c>
-      <c r="T16" s="13">
-        <v>50</v>
-      </c>
-      <c r="U16" s="15">
-        <v>109001</v>
-      </c>
-      <c r="V16" s="15">
-        <v>109002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" ht="13.35" customHeight="1">
-      <c r="B17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="13">
-        <v>3</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <v>3</v>
-      </c>
-      <c r="L17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q17" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R17" s="13">
-        <v>5</v>
-      </c>
-      <c r="S17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T17" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U17" s="15">
-        <v>105001</v>
-      </c>
-      <c r="V17" s="15">
-        <v>105002</v>
-      </c>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-    </row>
-    <row r="18" spans="2:24" ht="13.35" customHeight="1">
-      <c r="B18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1002</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="12">
-        <v>2</v>
-      </c>
-      <c r="J18" s="12">
-        <v>3</v>
-      </c>
-      <c r="K18" s="12">
-        <v>2</v>
-      </c>
-      <c r="L18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="O18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="P18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q18" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>-1,-1,-1,-1</v>
-      </c>
-      <c r="R18" s="12">
-        <v>6</v>
-      </c>
-      <c r="S18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="T18" s="13">
-        <v>-1</v>
-      </c>
-      <c r="U18" s="15">
-        <v>106001</v>
-      </c>
-      <c r="V18" s="15">
-        <v>106002</v>
-      </c>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
